--- a/BOM/BOM Official for RoughDraft (1).xlsx
+++ b/BOM/BOM Official for RoughDraft (1).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce57aa5d640eed3b/Documents/aa_School_Folders/Cat-Stuff/BOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A5E4FF30ACB73D9F33323FDF55A22BDF50C3F669" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9W6snVsmdkITMkeiRV+OPiK4r3MESvTAcQVTKQOLVnE="/>
@@ -483,40 +492,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -526,7 +535,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -536,7 +545,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -550,8 +565,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -561,6 +578,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -569,100 +587,85 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -852,30 +855,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="36.13"/>
-    <col customWidth="1" min="3" max="3" width="12.63"/>
-    <col customWidth="1" min="4" max="4" width="23.63"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="6" max="6" width="46.25"/>
-    <col customWidth="1" min="8" max="8" width="37.38"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" customWidth="1"/>
+    <col min="6" max="6" width="46.26953125" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,12 +899,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>45609.0</v>
+        <v>45609</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -907,7 +915,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -923,7 +931,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -939,7 +947,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -951,7 +959,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -983,9 +991,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>17</v>
@@ -996,28 +1004,28 @@
       <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>0.63</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>0.63</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>24</v>
@@ -1040,16 +1048,16 @@
       <c r="H9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>0.31</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>0.31</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>29</v>
@@ -1072,16 +1080,16 @@
       <c r="H10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>0.54</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>0.54</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>34</v>
@@ -1104,16 +1112,16 @@
       <c r="H11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>3.9</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>39</v>
@@ -1136,16 +1144,16 @@
       <c r="H12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>1.04</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>1.04</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>44</v>
@@ -1168,16 +1176,16 @@
       <c r="H13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>0.25</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>49</v>
@@ -1200,16 +1208,16 @@
       <c r="H14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="14">
-        <v>0.58</v>
-      </c>
-      <c r="J14" s="14">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="I14" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
@@ -1232,16 +1240,16 @@
       <c r="H15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>0.39</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>0.78</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>59</v>
@@ -1264,16 +1272,16 @@
       <c r="H16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>0.12</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>0.36</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -1294,16 +1302,16 @@
       <c r="H17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>0.39</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>0.78</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>69</v>
@@ -1326,16 +1334,16 @@
       <c r="H18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>1.94</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>7.76</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>74</v>
@@ -1358,16 +1366,16 @@
       <c r="H19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>0.84</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>79</v>
@@ -1390,16 +1398,16 @@
       <c r="H20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>0.1</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>84</v>
@@ -1422,16 +1430,16 @@
       <c r="H21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>0.36</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>1.8</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
@@ -1452,16 +1460,16 @@
       <c r="H22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>0.15</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>92</v>
@@ -1484,16 +1492,16 @@
       <c r="H23" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>0.41</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>0.41</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
@@ -1514,16 +1522,16 @@
       <c r="H24" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>0.17</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>99</v>
@@ -1537,7 +1545,7 @@
       <c r="E25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>102</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -1546,16 +1554,16 @@
       <c r="H25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>0.1</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="10">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>104</v>
@@ -1578,16 +1586,16 @@
       <c r="H26" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>0.1</v>
       </c>
-      <c r="J26" s="14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="J26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>109</v>
@@ -1601,7 +1609,7 @@
       <c r="E27" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>111</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -1610,16 +1618,16 @@
       <c r="H27" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>0.1</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>113</v>
@@ -1642,16 +1650,16 @@
       <c r="H28" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>0.66</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>0.66</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>118</v>
@@ -1674,16 +1682,16 @@
       <c r="H29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>0.45</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>0.45</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>124</v>
@@ -1706,16 +1714,16 @@
       <c r="H30" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>0.1</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>129</v>
@@ -1738,18 +1746,18 @@
       <c r="H31" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>0.68</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <v>1.36</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1770,18 +1778,18 @@
       <c r="H32" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>0.1</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -1802,16 +1810,16 @@
       <c r="H33" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>0.1</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>141</v>
@@ -1834,14 +1842,14 @@
       <c r="H34" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <v>0.1</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1851,11 +1859,11 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1864,41 +1872,41 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <v>26.6</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
         <v>148</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>6.65</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="20">
-        <v>45606.0</v>
+      <c r="B38" s="19">
+        <v>45606</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
@@ -1911,12 +1919,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="20">
-        <v>45609.0</v>
+      <c r="B39" s="19">
+        <v>45609</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
@@ -1929,7 +1937,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1941,7 +1949,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1953,7 +1961,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1965,7 +1973,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1977,7 +1985,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1989,7 +1997,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2001,7 +2009,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2013,7 +2021,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2025,7 +2033,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2037,7 +2045,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="5:10" ht="15.75" customHeight="1">
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2045,7 +2053,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="5:10" ht="15.75" customHeight="1">
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2053,7 +2061,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="5:10" ht="15.75" customHeight="1">
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2061,19 +2069,19 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="52" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="53" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="54" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="55" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="56" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="57" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="58" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="59" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="60" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="61" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="62" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="63" spans="5:10" ht="15.75" customHeight="1"/>
+    <row r="64" spans="5:10" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -3011,6 +3019,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>